--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1537.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1537.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.226958535612247</v>
+        <v>1.486263275146484</v>
       </c>
       <c r="B1">
-        <v>1.875064825380732</v>
+        <v>2.738741397857666</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>6.813967704772949</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>1.748903155326843</v>
       </c>
       <c r="E1">
-        <v>0.9846700139079144</v>
+        <v>0.896901547908783</v>
       </c>
     </row>
   </sheetData>
